--- a/in/Conversionfactors.xlsx
+++ b/in/Conversionfactors.xlsx
@@ -22,7 +22,7 @@
     <t>convfactor</t>
   </si>
   <si>
-    <t>h14aq3</t>
+    <t>untcd</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="765" activePane="bottomLeft"/>
       <selection activeCell="C2" sqref="C2"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
